--- a/Code/Results/Cases/Case_4_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.01695458523872</v>
+        <v>20.29779169861954</v>
       </c>
       <c r="C2">
-        <v>11.6131499417336</v>
+        <v>8.272530423114503</v>
       </c>
       <c r="D2">
-        <v>8.633502431961739</v>
+        <v>13.52983058904382</v>
       </c>
       <c r="E2">
-        <v>8.21334625820529</v>
+        <v>13.90758626613974</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.124211212686265</v>
+        <v>3.722759816181884</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.475367808395968</v>
+        <v>8.525373922252752</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.440655079936439</v>
+        <v>12.25760396085246</v>
       </c>
       <c r="M2">
-        <v>13.5322490800105</v>
+        <v>18.77074067939193</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.39407522411608</v>
+        <v>33.78363315571368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.70320117618601</v>
+        <v>19.96064240996766</v>
       </c>
       <c r="C3">
-        <v>11.08633453797166</v>
+        <v>8.023605634309186</v>
       </c>
       <c r="D3">
-        <v>8.542502893598694</v>
+        <v>13.55077148724115</v>
       </c>
       <c r="E3">
-        <v>8.305047898703496</v>
+        <v>13.94595018123578</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.131512481981809</v>
+        <v>3.725484214084565</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.471199982598884</v>
+        <v>8.525381100959216</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.335037858270459</v>
+        <v>12.26438464911869</v>
       </c>
       <c r="M3">
-        <v>12.98522072198841</v>
+        <v>18.7028360213595</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.30218808756527</v>
+        <v>33.88382460644006</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.858078208272</v>
+        <v>19.75429392280465</v>
       </c>
       <c r="C4">
-        <v>10.75012717152717</v>
+        <v>7.865680470976323</v>
       </c>
       <c r="D4">
-        <v>8.491589227522946</v>
+        <v>13.56590951430752</v>
       </c>
       <c r="E4">
-        <v>8.363873381737292</v>
+        <v>13.9708779051951</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.136124597169205</v>
+        <v>3.727245587062147</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.468907504705164</v>
+        <v>8.525487238656009</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.272543554562108</v>
+        <v>12.27003308100755</v>
       </c>
       <c r="M4">
-        <v>12.64308480303205</v>
+        <v>18.66374364563452</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.26695741421536</v>
+        <v>33.9528645194572</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5041544854099</v>
+        <v>19.67047774231453</v>
       </c>
       <c r="C5">
-        <v>10.61001261480284</v>
+        <v>7.800110681707038</v>
       </c>
       <c r="D5">
-        <v>8.472073230508677</v>
+        <v>13.57265150990957</v>
       </c>
       <c r="E5">
-        <v>8.388478283273757</v>
+        <v>13.98138196061439</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.138037630278685</v>
+        <v>3.727985710457792</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.468038962830332</v>
+        <v>8.525556177874128</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.247679508045712</v>
+        <v>12.27270899521427</v>
       </c>
       <c r="M5">
-        <v>12.50227122630181</v>
+        <v>18.64847803203463</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.25771859541038</v>
+        <v>33.98288495532304</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44481543504066</v>
+        <v>19.65657969790023</v>
       </c>
       <c r="C6">
-        <v>10.58656222025009</v>
+        <v>7.789151543044562</v>
       </c>
       <c r="D6">
-        <v>8.468906509318906</v>
+        <v>13.5738056192035</v>
       </c>
       <c r="E6">
-        <v>8.392602129078762</v>
+        <v>13.98314705962624</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.138357345707982</v>
+        <v>3.728109959451335</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.467898669927022</v>
+        <v>8.525569179756426</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.24358756311306</v>
+        <v>12.27317594460155</v>
       </c>
       <c r="M6">
-        <v>12.47881106918658</v>
+        <v>18.64598364402306</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.25648739906856</v>
+        <v>33.987983581708</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85334342354147</v>
+        <v>19.75316230464719</v>
       </c>
       <c r="C7">
-        <v>10.74824997761632</v>
+        <v>7.86480099986712</v>
       </c>
       <c r="D7">
-        <v>8.491321062892014</v>
+        <v>13.56599811905775</v>
       </c>
       <c r="E7">
-        <v>8.364202649521479</v>
+        <v>13.97101816537823</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.136150259720021</v>
+        <v>3.727255478032916</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.468895527115145</v>
+        <v>8.525488064247051</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.272205774649872</v>
+        <v>12.27006765359855</v>
       </c>
       <c r="M7">
-        <v>12.641191112464</v>
+        <v>18.66353506263376</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.26681237393596</v>
+        <v>33.95326175605776</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57202928447611</v>
+        <v>20.18146834464057</v>
       </c>
       <c r="C8">
-        <v>11.43420026246456</v>
+        <v>8.187793327128775</v>
       </c>
       <c r="D8">
-        <v>8.601087485612558</v>
+        <v>13.53657762159376</v>
       </c>
       <c r="E8">
-        <v>8.244441351204921</v>
+        <v>13.92052982560722</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.126702572400932</v>
+        <v>3.723680848696202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.473874547393375</v>
+        <v>8.52535534660432</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.403756028116885</v>
+        <v>12.25963415575909</v>
       </c>
       <c r="M8">
-        <v>13.34503537353005</v>
+        <v>18.7467938559028</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.35786973265756</v>
+        <v>33.8166148349852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.63311933194053</v>
+        <v>21.02204417037282</v>
       </c>
       <c r="C9">
-        <v>12.67497130226508</v>
+        <v>8.778295192770647</v>
       </c>
       <c r="D9">
-        <v>8.856310722708015</v>
+        <v>13.49698545951971</v>
       </c>
       <c r="E9">
-        <v>8.02963870201547</v>
+        <v>13.8323742942494</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.109147236170366</v>
+        <v>3.71737044520378</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.485822875954097</v>
+        <v>8.525897829521051</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.679934746684354</v>
+        <v>12.25092513073666</v>
       </c>
       <c r="M9">
-        <v>14.66876653832163</v>
+        <v>18.93020791312015</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.71373179030294</v>
+        <v>33.60856504825626</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74286958916213</v>
+        <v>21.63402602293745</v>
       </c>
       <c r="C10">
-        <v>13.51974976757775</v>
+        <v>9.182978177324044</v>
       </c>
       <c r="D10">
-        <v>9.068949456662837</v>
+        <v>13.47894001266389</v>
       </c>
       <c r="E10">
-        <v>7.884153485358027</v>
+        <v>13.77417281255399</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.09676241064464</v>
+        <v>3.713155797789832</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.496041402157288</v>
+        <v>8.526780143971969</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.893331925474179</v>
+        <v>12.25164483406734</v>
       </c>
       <c r="M10">
-        <v>15.59936502038856</v>
+        <v>19.07654076990814</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.09550461558407</v>
+        <v>33.49254013057749</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.68436275507733</v>
+        <v>21.91000681680409</v>
       </c>
       <c r="C11">
-        <v>13.88918455792786</v>
+        <v>9.360214479861479</v>
       </c>
       <c r="D11">
-        <v>9.171286961622188</v>
+        <v>13.47312810590642</v>
       </c>
       <c r="E11">
-        <v>7.82068448749601</v>
+        <v>13.74911087742174</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.091220487624422</v>
+        <v>3.711328973753039</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.501030251415793</v>
+        <v>8.527285410178383</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.992574441609798</v>
+        <v>12.25350682077755</v>
       </c>
       <c r="M11">
-        <v>16.01247817437062</v>
+        <v>19.14546460581499</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.29783830830321</v>
+        <v>33.44781448835115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.03407060126194</v>
+        <v>22.01407056344775</v>
       </c>
       <c r="C12">
-        <v>14.02692909795027</v>
+        <v>9.426305227210747</v>
       </c>
       <c r="D12">
-        <v>9.210857270322425</v>
+        <v>13.47127171888288</v>
       </c>
       <c r="E12">
-        <v>7.797045271150033</v>
+        <v>13.73982316360549</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.089133403299614</v>
+        <v>3.710650130556998</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.502970913472838</v>
+        <v>8.527491579535708</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.030458422675913</v>
+        <v>12.2544314867848</v>
       </c>
       <c r="M12">
-        <v>16.16737679180829</v>
+        <v>19.17188866683951</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.37878036518657</v>
+        <v>33.43204076932448</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.95905591899347</v>
+        <v>21.99167983019979</v>
       </c>
       <c r="C13">
-        <v>13.99735919802255</v>
+        <v>9.412117552834111</v>
       </c>
       <c r="D13">
-        <v>9.202298561006412</v>
+        <v>13.47165621036834</v>
       </c>
       <c r="E13">
-        <v>7.802118734628942</v>
+        <v>13.74181443443532</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.089582410600543</v>
+        <v>3.710795757385241</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.502550623384527</v>
+        <v>8.527446519094866</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.022286070391441</v>
+        <v>12.25422259624388</v>
       </c>
       <c r="M13">
-        <v>16.13408590545629</v>
+        <v>19.16618359732442</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.36115261715355</v>
+        <v>33.43538613030118</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71326931883433</v>
+        <v>21.91857764732746</v>
       </c>
       <c r="C14">
-        <v>13.90056006876016</v>
+        <v>9.365672550953729</v>
       </c>
       <c r="D14">
-        <v>9.174525988311197</v>
+        <v>13.47296847821677</v>
       </c>
       <c r="E14">
-        <v>7.818731723534825</v>
+        <v>13.74834271304016</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.091048561337335</v>
+        <v>3.711272866067564</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.501188863246923</v>
+        <v>8.527302075115269</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.995685149634969</v>
+        <v>12.25357849963633</v>
       </c>
       <c r="M14">
-        <v>16.02525293098027</v>
+        <v>19.14763211972308</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.30440968442948</v>
+        <v>33.44649344295499</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56183399168322</v>
+        <v>21.87373979234048</v>
       </c>
       <c r="C15">
-        <v>13.84098724017462</v>
+        <v>9.337089108809792</v>
       </c>
       <c r="D15">
-        <v>9.157621265524728</v>
+        <v>13.47381712934543</v>
       </c>
       <c r="E15">
-        <v>7.828959282418638</v>
+        <v>13.75236784975799</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.091948068271845</v>
+        <v>3.711566791422136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.500361532198053</v>
+        <v>8.52721552800781</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.979430552861093</v>
+        <v>12.25321253263752</v>
       </c>
       <c r="M15">
-        <v>15.95838755121122</v>
+        <v>19.1363105666342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.27022186288593</v>
+        <v>33.45344857094373</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.68038059186351</v>
+        <v>21.61593306598499</v>
       </c>
       <c r="C16">
-        <v>13.49530571659048</v>
+        <v>9.171253979486224</v>
       </c>
       <c r="D16">
-        <v>9.062375214930205</v>
+        <v>13.47936805180296</v>
       </c>
       <c r="E16">
-        <v>7.888356326879182</v>
+        <v>13.77583906946745</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.097126296905566</v>
+        <v>3.713276998949999</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.495722429826936</v>
+        <v>8.526749205387169</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.886889021064198</v>
+        <v>12.25155393648437</v>
       </c>
       <c r="M16">
-        <v>15.57215511530324</v>
+        <v>19.07208260076078</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.08287564734654</v>
+        <v>33.49562554242954</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12737206297803</v>
+        <v>21.45708846009343</v>
       </c>
       <c r="C17">
-        <v>13.27942051391814</v>
+        <v>9.067734394673998</v>
       </c>
       <c r="D17">
-        <v>9.00538859966287</v>
+        <v>13.48338717615963</v>
       </c>
       <c r="E17">
-        <v>7.92549255081784</v>
+        <v>13.79059964005835</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.100325365281017</v>
+        <v>3.714349269988806</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.492965396422629</v>
+        <v>8.526489667737978</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.83066612256594</v>
+        <v>12.25092872899168</v>
       </c>
       <c r="M17">
-        <v>15.33254107035522</v>
+        <v>19.03327399030605</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.97543001522751</v>
+        <v>33.5235661563048</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80475212119157</v>
+        <v>21.36550368985703</v>
       </c>
       <c r="C18">
-        <v>13.15385058095409</v>
+        <v>9.00754937664734</v>
       </c>
       <c r="D18">
-        <v>8.97313849508074</v>
+        <v>13.48592451450659</v>
       </c>
       <c r="E18">
-        <v>7.947107318751899</v>
+        <v>13.79922268123709</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.102174154373545</v>
+        <v>3.714974528729838</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.491411494507174</v>
+        <v>8.526350174018212</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.798532592119025</v>
+        <v>12.25071363983433</v>
       </c>
       <c r="M18">
-        <v>15.19376219096437</v>
+        <v>19.01117500053371</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.91631626382642</v>
+        <v>33.54039474287765</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69774778273249</v>
+        <v>21.33445964176148</v>
       </c>
       <c r="C19">
-        <v>13.11109524501763</v>
+        <v>8.987062536922052</v>
       </c>
       <c r="D19">
-        <v>8.962309366800271</v>
+        <v>13.48682237355992</v>
       </c>
       <c r="E19">
-        <v>7.954469369064541</v>
+        <v>13.80216518409853</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.102801678453741</v>
+        <v>3.715187695498894</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.490890770842779</v>
+        <v>8.526304627690461</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.787688128128297</v>
+        <v>12.25066566693774</v>
       </c>
       <c r="M19">
-        <v>15.14661171785932</v>
+        <v>19.0037313520185</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.89675654262954</v>
+        <v>33.54622263360066</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18671025333558</v>
+        <v>21.47402138775228</v>
       </c>
       <c r="C20">
-        <v>13.30254675059882</v>
+        <v>9.078821105373198</v>
       </c>
       <c r="D20">
-        <v>9.011400292912919</v>
+        <v>13.48293598150998</v>
       </c>
       <c r="E20">
-        <v>7.921512912835976</v>
+        <v>13.78901457629322</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.099983923279005</v>
+        <v>3.714234243955438</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.493255571289691</v>
+        <v>8.526516283960666</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.836630060531312</v>
+        <v>12.25098033449422</v>
       </c>
       <c r="M20">
-        <v>15.35814823009443</v>
+        <v>19.03738229014618</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.98658831792082</v>
+        <v>33.5205133572665</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.78564679252885</v>
+        <v>21.9400623386301</v>
       </c>
       <c r="C21">
-        <v>13.92905080067687</v>
+        <v>9.379342674605324</v>
       </c>
       <c r="D21">
-        <v>9.182661192306282</v>
+        <v>13.47257368740872</v>
       </c>
       <c r="E21">
-        <v>7.813841317156293</v>
+        <v>13.74641970347741</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.090617618974499</v>
+        <v>3.711132377172153</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.501587425984497</v>
+        <v>8.527344099996547</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.003490320893961</v>
+        <v>12.25376173645772</v>
       </c>
       <c r="M21">
-        <v>16.0572620136857</v>
+        <v>19.15307246200033</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.32095755314977</v>
+        <v>33.44319935933185</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.79098105821281</v>
+        <v>22.24201603953141</v>
       </c>
       <c r="C22">
-        <v>14.3259626051421</v>
+        <v>9.56976261520332</v>
       </c>
       <c r="D22">
-        <v>9.299359924527526</v>
+        <v>13.46780888475229</v>
       </c>
       <c r="E22">
-        <v>7.745777914451486</v>
+        <v>13.71976266354737</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.084562452567796</v>
+        <v>3.709180493397064</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.507334310812489</v>
+        <v>8.52797155322455</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.114306701489863</v>
+        <v>12.25685881150987</v>
       </c>
       <c r="M22">
-        <v>16.50518844139341</v>
+        <v>19.23056464502161</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.56477503421844</v>
+        <v>33.39945046548645</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.25800360751122</v>
+        <v>22.08112936951427</v>
       </c>
       <c r="C23">
-        <v>14.11527328031998</v>
+        <v>9.468691562590843</v>
       </c>
       <c r="D23">
-        <v>9.236635273774624</v>
+        <v>13.47016836847009</v>
       </c>
       <c r="E23">
-        <v>7.781891657826893</v>
+        <v>13.73388216743312</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.087788750107443</v>
+        <v>3.710215377487863</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.504238581817336</v>
+        <v>8.527628795814357</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.055002874634166</v>
+        <v>12.25508917491523</v>
       </c>
       <c r="M23">
-        <v>16.26696139588145</v>
+        <v>19.18903838731813</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.43226533964215</v>
+        <v>33.42217822041741</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.15989806807734</v>
+        <v>21.46636682252891</v>
       </c>
       <c r="C24">
-        <v>13.29209590859016</v>
+        <v>9.073810888146207</v>
       </c>
       <c r="D24">
-        <v>9.008680811636866</v>
+        <v>13.48313926048045</v>
       </c>
       <c r="E24">
-        <v>7.923311283179587</v>
+        <v>13.78973075684482</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.100138259172643</v>
+        <v>3.71428621982061</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.493124286385339</v>
+        <v>8.526504220487102</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.833933172425783</v>
+        <v>12.25095655392245</v>
       </c>
       <c r="M24">
-        <v>15.34657440971278</v>
+        <v>19.03552426443377</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.98153538488911</v>
+        <v>33.52189114455551</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.83851073040473</v>
+        <v>20.79520431593489</v>
       </c>
       <c r="C25">
-        <v>12.35087222383679</v>
+        <v>8.623471887657201</v>
       </c>
       <c r="D25">
-        <v>8.782903891214337</v>
+        <v>13.50575706709566</v>
       </c>
       <c r="E25">
-        <v>8.085593527108328</v>
+        <v>13.8550660491403</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.113800235291273</v>
+        <v>3.719003193993786</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.482346160797868</v>
+        <v>8.525665717220859</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.603336267416634</v>
+        <v>12.25202752840804</v>
       </c>
       <c r="M25">
-        <v>14.31757243631712</v>
+        <v>18.87850313569844</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.59719943803828</v>
+        <v>33.65840138682113</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.29779169861954</v>
+        <v>21.01695458523874</v>
       </c>
       <c r="C2">
-        <v>8.272530423114503</v>
+        <v>11.61314994173379</v>
       </c>
       <c r="D2">
-        <v>13.52983058904382</v>
+        <v>8.633502431961732</v>
       </c>
       <c r="E2">
-        <v>13.90758626613974</v>
+        <v>8.213346258205224</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.722759816181884</v>
+        <v>2.124211212686399</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.525373922252752</v>
+        <v>5.475367808395968</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.25760396085246</v>
+        <v>7.440655079936352</v>
       </c>
       <c r="M2">
-        <v>18.77074067939193</v>
+        <v>13.53224908001042</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.78363315571368</v>
+        <v>22.39407522411587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96064240996766</v>
+        <v>19.70320117618596</v>
       </c>
       <c r="C3">
-        <v>8.023605634309186</v>
+        <v>11.0863345379712</v>
       </c>
       <c r="D3">
-        <v>13.55077148724115</v>
+        <v>8.542502893598465</v>
       </c>
       <c r="E3">
-        <v>13.94595018123578</v>
+        <v>8.305047898703242</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.725484214084565</v>
+        <v>2.131512481981677</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.525381100959216</v>
+        <v>5.471199982598819</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.26438464911869</v>
+        <v>7.335037858270422</v>
       </c>
       <c r="M3">
-        <v>18.7028360213595</v>
+        <v>12.98522072198839</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>33.88382460644006</v>
+        <v>22.30218808756525</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.75429392280465</v>
+        <v>18.85807820827199</v>
       </c>
       <c r="C4">
-        <v>7.865680470976323</v>
+        <v>10.7501271715272</v>
       </c>
       <c r="D4">
-        <v>13.56590951430752</v>
+        <v>8.49158922752283</v>
       </c>
       <c r="E4">
-        <v>13.9708779051951</v>
+        <v>8.363873381737163</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.727245587062147</v>
+        <v>2.136124597169338</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.525487238656009</v>
+        <v>5.468907504705163</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.27003308100755</v>
+        <v>7.272543554562001</v>
       </c>
       <c r="M4">
-        <v>18.66374364563452</v>
+        <v>12.64308480303201</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>33.9528645194572</v>
+        <v>22.26695741421531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.67047774231453</v>
+        <v>18.50415448540993</v>
       </c>
       <c r="C5">
-        <v>7.800110681707038</v>
+        <v>10.61001261480273</v>
       </c>
       <c r="D5">
-        <v>13.57265150990957</v>
+        <v>8.472073230508727</v>
       </c>
       <c r="E5">
-        <v>13.98138196061439</v>
+        <v>8.388478283273628</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.727985710457792</v>
+        <v>2.138037630278417</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.525556177874128</v>
+        <v>5.468038962830233</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.27270899521427</v>
+        <v>7.247679508045661</v>
       </c>
       <c r="M5">
-        <v>18.64847803203463</v>
+        <v>12.50227122630181</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>33.98288495532304</v>
+        <v>22.25771859541052</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.65657969790023</v>
+        <v>18.44481543504068</v>
       </c>
       <c r="C6">
-        <v>7.789151543044562</v>
+        <v>10.58656222025011</v>
       </c>
       <c r="D6">
-        <v>13.5738056192035</v>
+        <v>8.468906509318726</v>
       </c>
       <c r="E6">
-        <v>13.98314705962624</v>
+        <v>8.392602129078695</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.728109959451335</v>
+        <v>2.138357345707981</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.525569179756426</v>
+        <v>5.467898669927088</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.27317594460155</v>
+        <v>7.24358756311303</v>
       </c>
       <c r="M6">
-        <v>18.64598364402306</v>
+        <v>12.47881106918662</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>33.987983581708</v>
+        <v>22.25648739906872</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.75316230464719</v>
+        <v>18.85334342354149</v>
       </c>
       <c r="C7">
-        <v>7.86480099986712</v>
+        <v>10.74824997761629</v>
       </c>
       <c r="D7">
-        <v>13.56599811905775</v>
+        <v>8.491321062892069</v>
       </c>
       <c r="E7">
-        <v>13.97101816537823</v>
+        <v>8.364202649521546</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.727255478032916</v>
+        <v>2.136150259719887</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.525488064247051</v>
+        <v>5.46889552711521</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.27006765359855</v>
+        <v>7.272205774649843</v>
       </c>
       <c r="M7">
-        <v>18.66353506263376</v>
+        <v>12.64119111246402</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>33.95326175605776</v>
+        <v>22.26681237393599</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.18146834464057</v>
+        <v>20.57202928447611</v>
       </c>
       <c r="C8">
-        <v>8.187793327128775</v>
+        <v>11.43420026246476</v>
       </c>
       <c r="D8">
-        <v>13.53657762159376</v>
+        <v>8.601087485612545</v>
       </c>
       <c r="E8">
-        <v>13.92052982560722</v>
+        <v>8.244441351204918</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.723680848696202</v>
+        <v>2.126702572400801</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.52535534660432</v>
+        <v>5.473874547393275</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.25963415575909</v>
+        <v>7.403756028116811</v>
       </c>
       <c r="M8">
-        <v>18.7467938559028</v>
+        <v>13.34503537353002</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.8166148349852</v>
+        <v>22.35786973265754</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.02204417037282</v>
+        <v>23.63311933194055</v>
       </c>
       <c r="C9">
-        <v>8.778295192770647</v>
+        <v>12.67497130226514</v>
       </c>
       <c r="D9">
-        <v>13.49698545951971</v>
+        <v>8.856310722708008</v>
       </c>
       <c r="E9">
-        <v>13.8323742942494</v>
+        <v>8.029638702015593</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.71737044520378</v>
+        <v>2.109147236170501</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.525897829521051</v>
+        <v>5.485822875954165</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.25092513073666</v>
+        <v>7.679934746684407</v>
       </c>
       <c r="M9">
-        <v>18.93020791312015</v>
+        <v>14.66876653832162</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.60856504825626</v>
+        <v>22.71373179030285</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.63402602293745</v>
+        <v>25.74286958916209</v>
       </c>
       <c r="C10">
-        <v>9.182978177324044</v>
+        <v>13.51974976757783</v>
       </c>
       <c r="D10">
-        <v>13.47894001266389</v>
+        <v>9.068949456662914</v>
       </c>
       <c r="E10">
-        <v>13.77417281255399</v>
+        <v>7.884153485358144</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.713155797789832</v>
+        <v>2.096762410644638</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.526780143971969</v>
+        <v>5.496041402157325</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.25164483406734</v>
+        <v>7.893331925474224</v>
       </c>
       <c r="M10">
-        <v>19.07654076990814</v>
+        <v>15.59936502038862</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.49254013057749</v>
+        <v>23.09550461558413</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.91000681680409</v>
+        <v>26.68436275507732</v>
       </c>
       <c r="C11">
-        <v>9.360214479861479</v>
+        <v>13.88918455792806</v>
       </c>
       <c r="D11">
-        <v>13.47312810590642</v>
+        <v>9.171286961622128</v>
       </c>
       <c r="E11">
-        <v>13.74911087742174</v>
+        <v>7.820684487496004</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.711328973753039</v>
+        <v>2.091220487624552</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.527285410178383</v>
+        <v>5.501030251415862</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.25350682077755</v>
+        <v>7.992574441609798</v>
       </c>
       <c r="M11">
-        <v>19.14546460581499</v>
+        <v>16.01247817437061</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.44781448835115</v>
+        <v>23.2978383083031</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.01407056344775</v>
+        <v>27.03407060126196</v>
       </c>
       <c r="C12">
-        <v>9.426305227210747</v>
+        <v>14.02692909795017</v>
       </c>
       <c r="D12">
-        <v>13.47127171888288</v>
+        <v>9.210857270322318</v>
       </c>
       <c r="E12">
-        <v>13.73982316360549</v>
+        <v>7.797045271150038</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.710650130556998</v>
+        <v>2.089133403299617</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.527491579535708</v>
+        <v>5.502970913472867</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.2544314867848</v>
+        <v>8.03045842267594</v>
       </c>
       <c r="M12">
-        <v>19.17188866683951</v>
+        <v>16.16737679180829</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>33.43204076932448</v>
+        <v>23.37878036518656</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.99167983019979</v>
+        <v>26.95905591899348</v>
       </c>
       <c r="C13">
-        <v>9.412117552834111</v>
+        <v>13.99735919802255</v>
       </c>
       <c r="D13">
-        <v>13.47165621036834</v>
+        <v>9.202298561006316</v>
       </c>
       <c r="E13">
-        <v>13.74181443443532</v>
+        <v>7.802118734628998</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.710795757385241</v>
+        <v>2.089582410600278</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.527446519094866</v>
+        <v>5.502550623384628</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.25422259624388</v>
+        <v>8.022286070391482</v>
       </c>
       <c r="M13">
-        <v>19.16618359732442</v>
+        <v>16.13408590545631</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.43538613030118</v>
+        <v>23.36115261715356</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.91857764732746</v>
+        <v>26.71326931883435</v>
       </c>
       <c r="C14">
-        <v>9.365672550953729</v>
+        <v>13.90056006875999</v>
       </c>
       <c r="D14">
-        <v>13.47296847821677</v>
+        <v>9.174525988311025</v>
       </c>
       <c r="E14">
-        <v>13.74834271304016</v>
+        <v>7.818731723534703</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.711272866067564</v>
+        <v>2.091048561337203</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.527302075115269</v>
+        <v>5.501188863246885</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.25357849963633</v>
+        <v>7.995685149634935</v>
       </c>
       <c r="M14">
-        <v>19.14763211972308</v>
+        <v>16.02525293098024</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.44649344295499</v>
+        <v>23.30440968442939</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.87373979234048</v>
+        <v>26.56183399168324</v>
       </c>
       <c r="C15">
-        <v>9.337089108809792</v>
+        <v>13.84098724017466</v>
       </c>
       <c r="D15">
-        <v>13.47381712934543</v>
+        <v>9.157621265524645</v>
       </c>
       <c r="E15">
-        <v>13.75236784975799</v>
+        <v>7.828959282418636</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.711566791422136</v>
+        <v>2.091948068271842</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.52721552800781</v>
+        <v>5.500361532198122</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.25321253263752</v>
+        <v>7.979430552861053</v>
       </c>
       <c r="M15">
-        <v>19.1363105666342</v>
+        <v>15.95838755121121</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.45344857094373</v>
+        <v>23.27022186288595</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.61593306598499</v>
+        <v>25.68038059186348</v>
       </c>
       <c r="C16">
-        <v>9.171253979486224</v>
+        <v>13.49530571659047</v>
       </c>
       <c r="D16">
-        <v>13.47936805180296</v>
+        <v>9.062375214930244</v>
       </c>
       <c r="E16">
-        <v>13.77583906946745</v>
+        <v>7.888356326879177</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.713276998949999</v>
+        <v>2.097126296905564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.526749205387169</v>
+        <v>5.495722429826873</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.25155393648437</v>
+        <v>7.886889021064208</v>
       </c>
       <c r="M16">
-        <v>19.07208260076078</v>
+        <v>15.57215511530323</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.49562554242954</v>
+        <v>23.08287564734659</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.45708846009343</v>
+        <v>25.12737206297805</v>
       </c>
       <c r="C17">
-        <v>9.067734394673998</v>
+        <v>13.27942051391806</v>
       </c>
       <c r="D17">
-        <v>13.48338717615963</v>
+        <v>9.005388599662876</v>
       </c>
       <c r="E17">
-        <v>13.79059964005835</v>
+        <v>7.925492550817714</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.714349269988806</v>
+        <v>2.100325365281016</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.526489667737978</v>
+        <v>5.492965396422564</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.25092872899168</v>
+        <v>7.83066612256592</v>
       </c>
       <c r="M17">
-        <v>19.03327399030605</v>
+        <v>15.33254107035518</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.5235661563048</v>
+        <v>22.97543001522746</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.36550368985703</v>
+        <v>24.80475212119154</v>
       </c>
       <c r="C18">
-        <v>9.00754937664734</v>
+        <v>13.15385058095407</v>
       </c>
       <c r="D18">
-        <v>13.48592451450659</v>
+        <v>8.973138495080843</v>
       </c>
       <c r="E18">
-        <v>13.79922268123709</v>
+        <v>7.947107318752026</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.714974528729838</v>
+        <v>2.102174154373411</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.526350174018212</v>
+        <v>5.491411494507208</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.25071363983433</v>
+        <v>7.79853259211911</v>
       </c>
       <c r="M18">
-        <v>19.01117500053371</v>
+        <v>15.1937621909644</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.54039474287765</v>
+        <v>22.91631626382643</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.33445964176148</v>
+        <v>24.69774778273248</v>
       </c>
       <c r="C19">
-        <v>8.987062536922052</v>
+        <v>13.11109524501765</v>
       </c>
       <c r="D19">
-        <v>13.48682237355992</v>
+        <v>8.962309366800392</v>
       </c>
       <c r="E19">
-        <v>13.80216518409853</v>
+        <v>7.954469369064536</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.715187695498894</v>
+        <v>2.102801678453742</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.526304627690461</v>
+        <v>5.490890770842747</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.25066566693774</v>
+        <v>7.787688128128295</v>
       </c>
       <c r="M19">
-        <v>19.0037313520185</v>
+        <v>15.14661171785932</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.54622263360066</v>
+        <v>22.8967565426295</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.47402138775228</v>
+        <v>25.18671025333547</v>
       </c>
       <c r="C20">
-        <v>9.078821105373198</v>
+        <v>13.30254675059884</v>
       </c>
       <c r="D20">
-        <v>13.48293598150998</v>
+        <v>9.011400292912942</v>
       </c>
       <c r="E20">
-        <v>13.78901457629322</v>
+        <v>7.921512912836162</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.714234243955438</v>
+        <v>2.099983923279137</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.526516283960666</v>
+        <v>5.493255571289756</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.25098033449422</v>
+        <v>7.836630060531362</v>
       </c>
       <c r="M20">
-        <v>19.03738229014618</v>
+        <v>15.3581482300945</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.5205133572665</v>
+        <v>22.98658831792109</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.9400623386301</v>
+        <v>26.78564679252892</v>
       </c>
       <c r="C21">
-        <v>9.379342674605324</v>
+        <v>13.9290508006766</v>
       </c>
       <c r="D21">
-        <v>13.47257368740872</v>
+        <v>9.182661192306258</v>
       </c>
       <c r="E21">
-        <v>13.74641970347741</v>
+        <v>7.8138413171563</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.711132377172153</v>
+        <v>2.0906176189745</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.527344099996547</v>
+        <v>5.501587425984565</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.25376173645772</v>
+        <v>8.003490320894018</v>
       </c>
       <c r="M21">
-        <v>19.15307246200033</v>
+        <v>16.0572620136857</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.44319935933185</v>
+        <v>23.32095755314977</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.24201603953141</v>
+        <v>27.79098105821274</v>
       </c>
       <c r="C22">
-        <v>9.56976261520332</v>
+        <v>14.32596260514213</v>
       </c>
       <c r="D22">
-        <v>13.46780888475229</v>
+        <v>9.299359924527485</v>
       </c>
       <c r="E22">
-        <v>13.71976266354737</v>
+        <v>7.745777914451536</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.709180493397064</v>
+        <v>2.084562452567928</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.52797155322455</v>
+        <v>5.50733431081249</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.25685881150987</v>
+        <v>8.11430670148987</v>
       </c>
       <c r="M22">
-        <v>19.23056464502161</v>
+        <v>16.50518844139345</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>33.39945046548645</v>
+        <v>23.56477503421855</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.08112936951427</v>
+        <v>27.25800360751117</v>
       </c>
       <c r="C23">
-        <v>9.468691562590843</v>
+        <v>14.11527328032</v>
       </c>
       <c r="D23">
-        <v>13.47016836847009</v>
+        <v>9.236635273774707</v>
       </c>
       <c r="E23">
-        <v>13.73388216743312</v>
+        <v>7.781891657826955</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.710215377487863</v>
+        <v>2.087788750107308</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.527628795814357</v>
+        <v>5.504238581817301</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.25508917491523</v>
+        <v>8.055002874634166</v>
       </c>
       <c r="M23">
-        <v>19.18903838731813</v>
+        <v>16.26696139588146</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>33.42217822041741</v>
+        <v>23.43226533964217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.46636682252891</v>
+        <v>25.15989806807734</v>
       </c>
       <c r="C24">
-        <v>9.073810888146207</v>
+        <v>13.29209590859014</v>
       </c>
       <c r="D24">
-        <v>13.48313926048045</v>
+        <v>9.008680811637044</v>
       </c>
       <c r="E24">
-        <v>13.78973075684482</v>
+        <v>7.923311283179721</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.71428621982061</v>
+        <v>2.100138259172775</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.526504220487102</v>
+        <v>5.493124286385275</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.25095655392245</v>
+        <v>7.833933172425851</v>
       </c>
       <c r="M24">
-        <v>19.03552426443377</v>
+        <v>15.34657440971278</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.52189114455551</v>
+        <v>22.98153538488911</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.79520431593489</v>
+        <v>22.83851073040473</v>
       </c>
       <c r="C25">
-        <v>8.623471887657201</v>
+        <v>12.3508722238368</v>
       </c>
       <c r="D25">
-        <v>13.50575706709566</v>
+        <v>8.782903891214398</v>
       </c>
       <c r="E25">
-        <v>13.8550660491403</v>
+        <v>8.085593527108461</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.719003193993786</v>
+        <v>2.113800235291139</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.525665717220859</v>
+        <v>5.482346160797935</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.25202752840804</v>
+        <v>7.603336267416657</v>
       </c>
       <c r="M25">
-        <v>18.87850313569844</v>
+        <v>14.31757243631716</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.65840138682113</v>
+        <v>22.59719943803836</v>
       </c>
     </row>
   </sheetData>
